--- a/data/trans_dic/P16A10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1043532920620571</v>
+        <v>0.1017207780403326</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.106922291122187</v>
+        <v>0.1072991598840029</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1074371727136423</v>
+        <v>0.1053393061727827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1212685243814173</v>
+        <v>0.1237912168739676</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09359220236484338</v>
+        <v>0.09279208022606604</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08967704733331106</v>
+        <v>0.09159883484661367</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1051140940649221</v>
+        <v>0.1050623758107651</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1408476000605487</v>
+        <v>0.1389670066750317</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1031406154129098</v>
+        <v>0.1033899335465488</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1031681567027037</v>
+        <v>0.1031663401405202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1121214383672594</v>
+        <v>0.1118873669533237</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1379567262237741</v>
+        <v>0.1387824775392641</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1448397411918634</v>
+        <v>0.1416918877545649</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1513947468752301</v>
+        <v>0.1517979680997254</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1540997077964291</v>
+        <v>0.1547557134395878</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1720030410465572</v>
+        <v>0.1754507528449729</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1291822919716616</v>
+        <v>0.1266785665970729</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1248774009881203</v>
+        <v>0.1252206387685169</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1508843892206443</v>
+        <v>0.1515242778995178</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.18098192661909</v>
+        <v>0.1790018181388786</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1292974683893461</v>
+        <v>0.1288464947286758</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1302157519858933</v>
+        <v>0.1313633511541605</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1463288113447421</v>
+        <v>0.1446301199594905</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1702178223324871</v>
+        <v>0.1694137849243305</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01678466865408061</v>
+        <v>0.01684248033811465</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01720592314709589</v>
+        <v>0.01714026178976831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03451433867974571</v>
+        <v>0.03418464725874098</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03287928774692558</v>
+        <v>0.03354182807016481</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01139997509245655</v>
+        <v>0.01128943628013914</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0085131573968795</v>
+        <v>0.008411553195560605</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01823506821185376</v>
+        <v>0.01836326461724196</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01992916965281984</v>
+        <v>0.01969596796035177</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01592890148448932</v>
+        <v>0.01597871007817336</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01457744498298958</v>
+        <v>0.01490325225919971</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02805936420796991</v>
+        <v>0.02873049639498108</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02835807462699853</v>
+        <v>0.0282693285698606</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03183957279457526</v>
+        <v>0.03166502442762797</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03169825882386401</v>
+        <v>0.03097141210662656</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05168941320118962</v>
+        <v>0.05315138215476491</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04806830700982349</v>
+        <v>0.04964853867242026</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02497264221966439</v>
+        <v>0.02469935647578895</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02018426279075462</v>
+        <v>0.02079117073946173</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03301171790091102</v>
+        <v>0.03388090588998806</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03182267282157589</v>
+        <v>0.03143028763171878</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02576481590623797</v>
+        <v>0.02650164201895362</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02423795565923265</v>
+        <v>0.02324461344720476</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0402297383710625</v>
+        <v>0.04021969507298631</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03787397368731494</v>
+        <v>0.03790541898194161</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03144637538524731</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04202217013948056</v>
+        <v>0.04202217013948054</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01632891943097939</v>
@@ -969,7 +969,7 @@
         <v>0.02917291007359982</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03058630680140771</v>
+        <v>0.0305863068014077</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009936116608536284</v>
+        <v>0.010042565818722</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008353176046019387</v>
+        <v>0.008401413234658359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01863947682713957</v>
+        <v>0.01845846475063717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03082261538705852</v>
+        <v>0.03034405151204267</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007898442599812257</v>
+        <v>0.00638160192428082</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01563029528881045</v>
+        <v>0.01381670571905446</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01226751606240204</v>
+        <v>0.01297276663749447</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01120012898629276</v>
+        <v>0.01127579035202507</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.00646008912706878</v>
+        <v>0.005696628186051631</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01950239841798064</v>
+        <v>0.02000011160698251</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02368194796898161</v>
+        <v>0.02407231788271703</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03814698437820313</v>
+        <v>0.03768247909367992</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03774278562597225</v>
+        <v>0.03428791071202743</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05003131476572745</v>
+        <v>0.05355405655342323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05702011986101829</v>
+        <v>0.05729650081546218</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03333133978186667</v>
+        <v>0.03273233054365607</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01860255668014395</v>
+        <v>0.01471542781909172</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04614270775115378</v>
+        <v>0.04555270088293022</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02865248763457224</v>
+        <v>0.02974730842851264</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02950911137790492</v>
+        <v>0.03042161912760985</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02227748330029364</v>
+        <v>0.02125062888439437</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04127671924830097</v>
+        <v>0.04240302514089839</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03918221363905065</v>
+        <v>0.03943388599980011</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.05366723602470302</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05338162418142029</v>
+        <v>0.05338162418142028</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05353354556355526</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04701473760902383</v>
+        <v>0.04647995210003563</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04499249610535071</v>
+        <v>0.04516738471017111</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05254594758543011</v>
+        <v>0.05263146852274805</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05094267788572332</v>
+        <v>0.05113205613750781</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04564337302289133</v>
+        <v>0.04608203556340804</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04140674416599009</v>
+        <v>0.04149045454818771</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04574652270636563</v>
+        <v>0.0459311683283891</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04777875436457321</v>
+        <v>0.0479590903274006</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04796178708258186</v>
+        <v>0.04817304363647343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04552044272617284</v>
+        <v>0.04474304645245818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05109104336204993</v>
+        <v>0.0505017910799507</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05141157202387205</v>
+        <v>0.05122070967798725</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06197690694846397</v>
+        <v>0.06262788442612696</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06185898368914419</v>
+        <v>0.06087447441317814</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06933194425463368</v>
+        <v>0.06838466040330958</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06487451387584753</v>
+        <v>0.06578162580223564</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06124516687195319</v>
+        <v>0.06276424115038762</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05640849651520077</v>
+        <v>0.05556286626918579</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06219900945929154</v>
+        <v>0.06201631223191147</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05950334965924749</v>
+        <v>0.05937425502527374</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05871641829492615</v>
+        <v>0.05952064703266779</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05658417504513298</v>
+        <v>0.05549259676279079</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06313947348144058</v>
+        <v>0.06235805468524278</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06070614760429368</v>
+        <v>0.06049413874449246</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>107664</v>
+        <v>104948</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>103998</v>
+        <v>104365</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>81045</v>
+        <v>79462</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>70038</v>
+        <v>71495</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>123084</v>
+        <v>122032</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>119498</v>
+        <v>122058</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>104553</v>
+        <v>104501</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>115411</v>
+        <v>113870</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>242054</v>
+        <v>242639</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>237822</v>
+        <v>237817</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>196101</v>
+        <v>195692</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>192718</v>
+        <v>193872</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>149434</v>
+        <v>146187</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>147254</v>
+        <v>147647</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>116245</v>
+        <v>116740</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>99339</v>
+        <v>101330</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>169889</v>
+        <v>166597</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>166403</v>
+        <v>166861</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>150079</v>
+        <v>150715</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>148297</v>
+        <v>146675</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>303440</v>
+        <v>302381</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>300171</v>
+        <v>302817</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>255930</v>
+        <v>252959</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>237785</v>
+        <v>236662</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28406</v>
+        <v>28504</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>33724</v>
+        <v>33595</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>71665</v>
+        <v>70980</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>73339</v>
+        <v>74817</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18099</v>
+        <v>17924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14940</v>
+        <v>14761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36257</v>
+        <v>36512</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>43260</v>
+        <v>42754</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>52248</v>
+        <v>52411</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>54154</v>
+        <v>55364</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>114052</v>
+        <v>116780</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>124812</v>
+        <v>124421</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>53885</v>
+        <v>53590</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>62129</v>
+        <v>60705</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>107327</v>
+        <v>110363</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>107220</v>
+        <v>110744</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39648</v>
+        <v>39215</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35421</v>
+        <v>36487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>65637</v>
+        <v>67365</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>69078</v>
+        <v>68226</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>84510</v>
+        <v>86927</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>90042</v>
+        <v>86352</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>163521</v>
+        <v>163480</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>166694</v>
+        <v>166832</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5479</v>
+        <v>5538</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4012</v>
+        <v>4035</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10194</v>
+        <v>10095</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21933</v>
+        <v>21592</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3763</v>
+        <v>3040</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8583</v>
+        <v>7587</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9015</v>
+        <v>9533</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11512</v>
+        <v>11589</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6059</v>
+        <v>5343</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>21375</v>
+        <v>21921</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>34255</v>
+        <v>34820</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21035</v>
+        <v>20778</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18129</v>
+        <v>16470</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27361</v>
+        <v>29288</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40575</v>
+        <v>40771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15879</v>
+        <v>15594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8514</v>
+        <v>6735</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25339</v>
+        <v>25015</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21056</v>
+        <v>21861</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30330</v>
+        <v>31268</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20896</v>
+        <v>19933</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45240</v>
+        <v>46475</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>56676</v>
+        <v>57040</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>153998</v>
+        <v>152246</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>153560</v>
+        <v>154157</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>177480</v>
+        <v>177769</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>179303</v>
+        <v>179969</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>154238</v>
+        <v>155720</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>146791</v>
+        <v>147087</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>161581</v>
+        <v>162233</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>177975</v>
+        <v>178647</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>319172</v>
+        <v>320578</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>316736</v>
+        <v>311326</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>353025</v>
+        <v>348953</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>372461</v>
+        <v>371078</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>203007</v>
+        <v>205139</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>211125</v>
+        <v>207765</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>234177</v>
+        <v>230977</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>228339</v>
+        <v>231531</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>206959</v>
+        <v>212093</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>199973</v>
+        <v>196975</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>219693</v>
+        <v>219048</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>221649</v>
+        <v>221168</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>390741</v>
+        <v>396093</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>393718</v>
+        <v>386123</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>436276</v>
+        <v>430877</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>439797</v>
+        <v>438261</v>
       </c>
     </row>
     <row r="20">
